--- a/01_Acquifer Pumping Test/02_기사용관정/aa_out.xlsx
+++ b/01_Acquifer Pumping Test/02_기사용관정/aa_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9129890-1548-4DBD-9CB9-23D0678838E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F933BE-46D9-4348-8045-58C13D27FC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="705" windowWidth="30990" windowHeight="20100" xr2:uid="{D32AC298-EB8B-4CBE-9D07-FE084CBD64EF}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F4282ED-6A41-4644-BC01-AC4EE2EC01F5}"/>
   </bookViews>
   <sheets>
     <sheet name="aa_out" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="SUM_AA" localSheetId="0">#REF!</definedName>
     <definedName name="SUM_II" localSheetId="0">#REF!</definedName>
     <definedName name="SUM_SS" localSheetId="0">#REF!</definedName>
-    <definedName name="SUM_SS_IN">[1]ss!$F$39</definedName>
+    <definedName name="SUM_SS_IN">[1]ss!$F$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>addres</t>
+    <t>address</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -521,9 +521,159 @@
             <v>O</v>
           </cell>
         </row>
+        <row r="35">
+          <cell r="S35" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="S36" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="S37" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="S38" t="str">
+            <v>O</v>
+          </cell>
+        </row>
         <row r="39">
-          <cell r="F39">
-            <v>18.359999999999996</v>
+          <cell r="S39" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="S40" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="S41" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="S42" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="S43" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="S44" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="S45" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="S46" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="S47" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="S48" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="S49" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="S50" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="S51" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="S52" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="S53" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="S54" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="S55" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="S56" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="S57" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="S58" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="S59" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="S60" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="S61" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="S62" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="S63" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="S64" t="str">
+            <v>O</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="F69">
+            <v>503.7600000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -973,13 +1123,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079D1D5E-0191-4BA6-BF8C-6F42726C3AF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2BD0C6-1C46-4365-94FD-6EF54D6929A7}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1547,241 +1699,241 @@
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_Acquifer Pumping Test/02_기사용관정/aa_out.xlsx
+++ b/01_Acquifer Pumping Test/02_기사용관정/aa_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\05_Send\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F933BE-46D9-4348-8045-58C13D27FC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AFEDE0-AB5F-4BCC-9DB6-26E9209D864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9F4282ED-6A41-4644-BC01-AC4EE2EC01F5}"/>
+    <workbookView xWindow="7395" yWindow="435" windowWidth="29775" windowHeight="19965" xr2:uid="{9F4282ED-6A41-4644-BC01-AC4EE2EC01F5}"/>
   </bookViews>
   <sheets>
     <sheet name="aa_out" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>gong</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -218,6 +218,21 @@
   </si>
   <si>
     <t>합곡리 1018-1</t>
+  </si>
+  <si>
+    <t>A-21</t>
+  </si>
+  <si>
+    <t>A-22</t>
+  </si>
+  <si>
+    <t>A-23</t>
+  </si>
+  <si>
+    <t>A-24</t>
+  </si>
+  <si>
+    <t>A-25</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1145,7 @@
   <dimension ref="A1:H267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1688,11 +1703,136 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2">
+        <v>100</v>
+      </c>
+      <c r="D22" s="2">
+        <v>150</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2">
+        <v>140</v>
+      </c>
+      <c r="D23" s="2">
+        <v>150</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5.94</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2">
+        <v>90</v>
+      </c>
+      <c r="D24" s="2">
+        <v>200</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>7.26</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2">
+        <v>200</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5.94</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2">
+        <v>100</v>
+      </c>
+      <c r="D26" s="2">
+        <v>200</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7.26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
